--- a/data/trans_dic/iP30KDA3_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30KDA3_2023-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>83,8%</t>
+          <t>87,78%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>67,91%</t>
+          <t>86,71%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>74,52%</t>
+          <t>87,2%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>58,46; 95,31</t>
+          <t>82,43; 92,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>46,13; 85,44</t>
+          <t>80,64; 91,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>57,91; 87,26</t>
+          <t>83,14; 91,16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>86,83%</t>
+          <t>89,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>91,17%</t>
+          <t>86,8%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>88,89%</t>
+          <t>87,79%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>80,37; 91,9</t>
+          <t>84,77; 92,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,27; 94,89</t>
+          <t>82,28; 90,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>84,6; 92,02</t>
+          <t>84,93; 90,36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>87,08%</t>
+          <t>82,88%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>89,25%</t>
+          <t>75,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>88,03%</t>
+          <t>79,31%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>82,79; 90,6</t>
+          <t>76,85; 89,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>85,07; 92,81</t>
+          <t>68,9; 81,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>85,31; 90,5</t>
+          <t>74,77; 84,26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>75,21%</t>
+          <t>79,84%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>80,38%</t>
+          <t>85,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>77,76%</t>
+          <t>82,92%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>68,89; 80,79</t>
+          <t>73,89; 84,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>74,29; 85,48</t>
+          <t>80,32; 90,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>73,57; 81,69</t>
+          <t>79,14; 85,96</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>85,92%</t>
+          <t>84,75%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>80,44%</t>
+          <t>83,8%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>83,2%</t>
+          <t>84,24%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>80,41; 90,16</t>
+          <t>82,37; 87,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>74,71; 85,79</t>
+          <t>80,95; 86,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>79,42; 86,69</t>
+          <t>82,45; 86,17</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>83,85%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>84,4%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>84,11%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>81,26; 86,14</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>81,8; 86,84</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>82,17; 85,91</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
